--- a/Code/Results/Cases/Case_7_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_40/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.723020363970818</v>
+        <v>1.894751629645725</v>
       </c>
       <c r="C2">
-        <v>0.4591607754118172</v>
+        <v>0.1106060178123585</v>
       </c>
       <c r="D2">
-        <v>0.002961923577876391</v>
+        <v>0.004383924777600967</v>
       </c>
       <c r="E2">
-        <v>0.01757156935235527</v>
+        <v>0.0276823863811142</v>
       </c>
       <c r="F2">
-        <v>3.040896220200764</v>
+        <v>2.704578554044261</v>
       </c>
       <c r="G2">
-        <v>0.0008446950913163281</v>
+        <v>0.000869429089168295</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06380750268143487</v>
+        <v>0.08435255930585939</v>
       </c>
       <c r="K2">
-        <v>0.8801809819132558</v>
+        <v>1.672294984419494</v>
       </c>
       <c r="L2">
-        <v>0.2714868813961004</v>
+        <v>0.1939495182660878</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.820587189445988</v>
+        <v>2.608795982461785</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.299225032633672</v>
+        <v>1.70128070694787</v>
       </c>
       <c r="C3">
-        <v>0.3958232529711836</v>
+        <v>0.09532808840482687</v>
       </c>
       <c r="D3">
-        <v>0.002563305593298537</v>
+        <v>0.003955633479263199</v>
       </c>
       <c r="E3">
-        <v>0.01755509133048072</v>
+        <v>0.02675321652723106</v>
       </c>
       <c r="F3">
-        <v>2.86335354032181</v>
+        <v>2.599156820010293</v>
       </c>
       <c r="G3">
-        <v>0.0008540001070885641</v>
+        <v>0.0008765260260831242</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06417718727322708</v>
+        <v>0.08365820103875166</v>
       </c>
       <c r="K3">
-        <v>0.774185368123085</v>
+        <v>1.487057658433997</v>
       </c>
       <c r="L3">
-        <v>0.2456109218468612</v>
+        <v>0.1771664957264747</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.854513735296095</v>
+        <v>2.623556337959172</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.045034542703263</v>
+        <v>1.585024864644282</v>
       </c>
       <c r="C4">
-        <v>0.3576350706276514</v>
+        <v>0.08606985590729721</v>
       </c>
       <c r="D4">
-        <v>0.002344646554982788</v>
+        <v>0.003689983150222176</v>
       </c>
       <c r="E4">
-        <v>0.01755660678885285</v>
+        <v>0.02621106188197508</v>
       </c>
       <c r="F4">
-        <v>2.759927919441836</v>
+        <v>2.537929359847936</v>
       </c>
       <c r="G4">
-        <v>0.000859867347140863</v>
+        <v>0.0008810171199000738</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06446894217422638</v>
+        <v>0.08331103968691878</v>
       </c>
       <c r="K4">
-        <v>0.7105293555068357</v>
+        <v>1.375564684552188</v>
       </c>
       <c r="L4">
-        <v>0.2301477627032682</v>
+        <v>0.1671174960314872</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.87751864529379</v>
+        <v>2.634759822597829</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.942802092742738</v>
+        <v>1.538233093879199</v>
       </c>
       <c r="C5">
-        <v>0.3422247487078209</v>
+        <v>0.0823233233140428</v>
       </c>
       <c r="D5">
-        <v>0.002261177663527292</v>
+        <v>0.003581039585363044</v>
       </c>
       <c r="E5">
-        <v>0.01756007150493133</v>
+        <v>0.02599698074218004</v>
       </c>
       <c r="F5">
-        <v>2.719071504459606</v>
+        <v>2.513807012325074</v>
       </c>
       <c r="G5">
-        <v>0.0008622988065635533</v>
+        <v>0.0008828818313690464</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06460352771062539</v>
+        <v>0.08318874940990995</v>
       </c>
       <c r="K5">
-        <v>0.6849069415954503</v>
+        <v>1.330642309438474</v>
       </c>
       <c r="L5">
-        <v>0.2239433854245192</v>
+        <v>0.1630820947400693</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.88741272176938</v>
+        <v>2.639842347457474</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.925903667631303</v>
+        <v>1.530497075914866</v>
       </c>
       <c r="C6">
-        <v>0.3396743560076914</v>
+        <v>0.08170267498256578</v>
       </c>
       <c r="D6">
-        <v>0.002247632903214836</v>
+        <v>0.003562907658594128</v>
       </c>
       <c r="E6">
-        <v>0.01756081665547793</v>
+        <v>0.02596183870393354</v>
       </c>
       <c r="F6">
-        <v>2.712362100846676</v>
+        <v>2.509850084096087</v>
       </c>
       <c r="G6">
-        <v>0.0008627050455097836</v>
+        <v>0.0008831935797148218</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06462680693995893</v>
+        <v>0.08316958129192642</v>
       </c>
       <c r="K6">
-        <v>0.6806704398381314</v>
+        <v>1.32321244218565</v>
       </c>
       <c r="L6">
-        <v>0.2229187391857863</v>
+        <v>0.1624154909541318</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.889086243194569</v>
+        <v>2.640716930073012</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.043650529088495</v>
+        <v>1.584391521267037</v>
       </c>
       <c r="C7">
-        <v>0.3574266585878831</v>
+        <v>0.08601922823173425</v>
       </c>
       <c r="D7">
-        <v>0.002343499195793797</v>
+        <v>0.003688516704105638</v>
       </c>
       <c r="E7">
-        <v>0.0175566420842399</v>
+        <v>0.02620814732450327</v>
       </c>
       <c r="F7">
-        <v>2.759371835053429</v>
+        <v>2.537600749985458</v>
       </c>
       <c r="G7">
-        <v>0.0008598999724281159</v>
+        <v>0.0008810421268780264</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06447069444944731</v>
+        <v>0.08330931370253936</v>
       </c>
       <c r="K7">
-        <v>0.7101825665351171</v>
+        <v>1.37495683940557</v>
       </c>
       <c r="L7">
-        <v>0.2300637080034562</v>
+        <v>0.1670628376522743</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.877650011575213</v>
+        <v>2.634826300926932</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.575543976436222</v>
+        <v>1.827482590724287</v>
       </c>
       <c r="C8">
-        <v>0.4371608789875268</v>
+        <v>0.1053099368735815</v>
       </c>
       <c r="D8">
-        <v>0.002818476218344301</v>
+        <v>0.004236793978746434</v>
       </c>
       <c r="E8">
-        <v>0.01756342353899765</v>
+        <v>0.02735594785704087</v>
       </c>
       <c r="F8">
-        <v>2.978448080879971</v>
+        <v>2.667469711558837</v>
       </c>
       <c r="G8">
-        <v>0.0008478726475309857</v>
+        <v>0.0008718490003590764</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06392115464245762</v>
+        <v>0.08409625645921892</v>
       </c>
       <c r="K8">
-        <v>0.8433122214387225</v>
+        <v>1.60792689834031</v>
       </c>
       <c r="L8">
-        <v>0.2624704966412423</v>
+        <v>0.1881067059206245</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.831816717108779</v>
+        <v>2.613427813469031</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.674500386323302</v>
+        <v>2.326978021803541</v>
       </c>
       <c r="C9">
-        <v>0.6003276604424173</v>
+        <v>0.1443342552619669</v>
       </c>
       <c r="D9">
-        <v>0.004004396272117461</v>
+        <v>0.005291881532748732</v>
       </c>
       <c r="E9">
-        <v>0.01767306418913961</v>
+        <v>0.02984558489168876</v>
       </c>
       <c r="F9">
-        <v>3.458114763187268</v>
+        <v>2.952493088155023</v>
       </c>
       <c r="G9">
-        <v>0.0008254184257561533</v>
+        <v>0.0008548335709631424</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06338701121483936</v>
+        <v>0.08630343171000021</v>
       </c>
       <c r="K9">
-        <v>1.117731804409729</v>
+        <v>2.085153079948526</v>
       </c>
       <c r="L9">
-        <v>0.3298843743301205</v>
+        <v>0.2316342600981187</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.760550080115451</v>
+        <v>2.589490788873064</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.528775810330956</v>
+        <v>2.711939218206908</v>
       </c>
       <c r="C10">
-        <v>0.7263183988462458</v>
+        <v>0.1740774729641146</v>
       </c>
       <c r="D10">
-        <v>0.005107349320986998</v>
+        <v>0.006057216827556999</v>
       </c>
       <c r="E10">
-        <v>0.01781890247063167</v>
+        <v>0.03184136490986234</v>
       </c>
       <c r="F10">
-        <v>3.85004052650919</v>
+        <v>3.184317032892636</v>
       </c>
       <c r="G10">
-        <v>0.000809470809892462</v>
+        <v>0.0008428778199977005</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06337214102435951</v>
+        <v>0.0883843101422066</v>
       </c>
       <c r="K10">
-        <v>1.330696310436352</v>
+        <v>2.452125614542069</v>
       </c>
       <c r="L10">
-        <v>0.3825444832991138</v>
+        <v>0.2653444908460187</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.72167611274358</v>
+        <v>2.584480401988372</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.930899477953062</v>
+        <v>2.891987199209154</v>
       </c>
       <c r="C11">
-        <v>0.7854736073041693</v>
+        <v>0.1879272069575393</v>
       </c>
       <c r="D11">
-        <v>0.005680070363782264</v>
+        <v>0.006404027666597756</v>
       </c>
       <c r="E11">
-        <v>0.01790119294603265</v>
+        <v>0.03279068944851993</v>
       </c>
       <c r="F11">
-        <v>4.039252249902518</v>
+        <v>3.295620735972705</v>
       </c>
       <c r="G11">
-        <v>0.0008022991779286226</v>
+        <v>0.0008375397495908886</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06345930924558729</v>
+        <v>0.08944420857125834</v>
       </c>
       <c r="K11">
-        <v>1.430876172280904</v>
+        <v>2.623600417821763</v>
       </c>
       <c r="L11">
-        <v>0.4073815057296741</v>
+        <v>0.281143311619843</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.707477949978568</v>
+        <v>2.585328463636301</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.085436055316393</v>
+        <v>2.960969077765753</v>
       </c>
       <c r="C12">
-        <v>0.8081886594442835</v>
+        <v>0.1932256988424115</v>
       </c>
       <c r="D12">
-        <v>0.005909228734395811</v>
+        <v>0.006535246276996531</v>
       </c>
       <c r="E12">
-        <v>0.01793482428920345</v>
+        <v>0.03315661072329767</v>
       </c>
       <c r="F12">
-        <v>4.112698747608363</v>
+        <v>3.338699654591522</v>
       </c>
       <c r="G12">
-        <v>0.0007995919593679553</v>
+        <v>0.0008355312338859277</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06350698237984531</v>
+        <v>0.08986311340309427</v>
       </c>
       <c r="K12">
-        <v>1.469366930623536</v>
+        <v>2.689276536333949</v>
       </c>
       <c r="L12">
-        <v>0.4169327776213549</v>
+        <v>0.2872006889870846</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.70265744044832</v>
+        <v>2.586136562028315</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.052047731981816</v>
+        <v>2.946075358233827</v>
       </c>
       <c r="C13">
-        <v>0.8032817258594775</v>
+        <v>0.1920820403656904</v>
       </c>
       <c r="D13">
-        <v>0.005859292419735596</v>
+        <v>0.006506989435003163</v>
       </c>
       <c r="E13">
-        <v>0.01792746821458024</v>
+        <v>0.03307750887550753</v>
       </c>
       <c r="F13">
-        <v>4.096796919632453</v>
+        <v>3.329378915170167</v>
       </c>
       <c r="G13">
-        <v>0.0008001746876729095</v>
+        <v>0.0008359632569630338</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06349604280765675</v>
+        <v>0.0897720931425674</v>
       </c>
       <c r="K13">
-        <v>1.461051185729971</v>
+        <v>2.67509746152416</v>
       </c>
       <c r="L13">
-        <v>0.4148689107213528</v>
+        <v>0.285892665563324</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.703669937811156</v>
+        <v>2.585940230057844</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.943565998975544</v>
+        <v>2.897645746790374</v>
       </c>
       <c r="C14">
-        <v>0.7873357815098814</v>
+        <v>0.1883619881032814</v>
       </c>
       <c r="D14">
-        <v>0.005698664114238028</v>
+        <v>0.006414824790770268</v>
       </c>
       <c r="E14">
-        <v>0.01790390920610463</v>
+        <v>0.03282066220656965</v>
       </c>
       <c r="F14">
-        <v>4.045257337322369</v>
+        <v>3.299145664537122</v>
       </c>
       <c r="G14">
-        <v>0.0008020763038988297</v>
+        <v>0.0008373742590148082</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06346293026163963</v>
+        <v>0.08947831287831676</v>
       </c>
       <c r="K14">
-        <v>1.434031212119933</v>
+        <v>2.628988205839164</v>
       </c>
       <c r="L14">
-        <v>0.4081642483028389</v>
+        <v>0.281640109708718</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.707069878597011</v>
+        <v>2.585384959457073</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.877422461112474</v>
+        <v>2.868088531753244</v>
       </c>
       <c r="C15">
-        <v>0.7776109441520873</v>
+        <v>0.1860906192166425</v>
       </c>
       <c r="D15">
-        <v>0.00560194143483983</v>
+        <v>0.006358359567702365</v>
       </c>
       <c r="E15">
-        <v>0.01788980599133616</v>
+        <v>0.03266418880938815</v>
       </c>
       <c r="F15">
-        <v>4.013928986303426</v>
+        <v>3.280750950482286</v>
       </c>
       <c r="G15">
-        <v>0.0008032420995185102</v>
+        <v>0.0008382401684171064</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06344459460220975</v>
+        <v>0.08930068812282954</v>
       </c>
       <c r="K15">
-        <v>1.417555518586937</v>
+        <v>2.600844456233489</v>
       </c>
       <c r="L15">
-        <v>0.4040770824139344</v>
+        <v>0.2790452769146015</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.709226609543435</v>
+        <v>2.585109429604401</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.502794175469376</v>
+        <v>2.700279550572645</v>
       </c>
       <c r="C16">
-        <v>0.7224935928673801</v>
+        <v>0.1731794491232534</v>
       </c>
       <c r="D16">
-        <v>0.005071518719379497</v>
+        <v>0.00603453148613653</v>
       </c>
       <c r="E16">
-        <v>0.01781385995234075</v>
+        <v>0.03178019759585382</v>
       </c>
       <c r="F16">
-        <v>3.837913468524562</v>
+        <v>3.177168191763229</v>
       </c>
       <c r="G16">
-        <v>0.0008099408816142351</v>
+        <v>0.0008432285694470742</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06336842999352399</v>
+        <v>0.08831742730077252</v>
       </c>
       <c r="K16">
-        <v>1.324222351449038</v>
+        <v>2.441018107801085</v>
       </c>
       <c r="L16">
-        <v>0.3809406540534326</v>
+        <v>0.2643220008893934</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.722678649176899</v>
+        <v>2.584491004359762</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.276645309898129</v>
+        <v>2.598659461668774</v>
       </c>
       <c r="C17">
-        <v>0.6891855841654717</v>
+        <v>0.1653460741723194</v>
       </c>
       <c r="D17">
-        <v>0.004765674808371756</v>
+        <v>0.005835582018759666</v>
       </c>
       <c r="E17">
-        <v>0.01777147105392984</v>
+        <v>0.03124883322996119</v>
       </c>
       <c r="F17">
-        <v>3.732882231267752</v>
+        <v>3.11518196708758</v>
       </c>
       <c r="G17">
-        <v>0.0008140693380539732</v>
+        <v>0.0008463134963620578</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06334654019173414</v>
+        <v>0.08774409861992893</v>
       </c>
       <c r="K17">
-        <v>1.267864652225768</v>
+        <v>2.344193006589279</v>
       </c>
       <c r="L17">
-        <v>0.3669859257300203</v>
+        <v>0.2554140013749446</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.731860469568829</v>
+        <v>2.584937894392127</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.147820622338827</v>
+        <v>2.540667940914943</v>
       </c>
       <c r="C18">
-        <v>0.6701976799704994</v>
+        <v>0.1608700617821057</v>
       </c>
       <c r="D18">
-        <v>0.004596300321775715</v>
+        <v>0.005721019101981639</v>
       </c>
       <c r="E18">
-        <v>0.01774857908065286</v>
+        <v>0.03094707546979869</v>
       </c>
       <c r="F18">
-        <v>3.673483968483481</v>
+        <v>3.08007346114222</v>
       </c>
       <c r="G18">
-        <v>0.0008164519598844834</v>
+        <v>0.0008480974423892796</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06334271350477394</v>
+        <v>0.08742491703377553</v>
       </c>
       <c r="K18">
-        <v>1.235754530589176</v>
+        <v>2.288922928185855</v>
       </c>
       <c r="L18">
-        <v>0.3590412290405283</v>
+        <v>0.250333492699923</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.737466014467302</v>
+        <v>2.585486840907862</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.104408497236648</v>
+        <v>2.521108928459</v>
       </c>
       <c r="C19">
-        <v>0.6637964992985417</v>
+        <v>0.1593594049783604</v>
       </c>
       <c r="D19">
-        <v>0.004540018231459442</v>
+        <v>0.005682205109296845</v>
       </c>
       <c r="E19">
-        <v>0.01774107906230338</v>
+        <v>0.03084555625991747</v>
       </c>
       <c r="F19">
-        <v>3.653540327872207</v>
+        <v>3.068277219354343</v>
       </c>
       <c r="G19">
-        <v>0.0008172601530602005</v>
+        <v>0.0008487031465308679</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0633428902226072</v>
+        <v>0.08731862895199782</v>
       </c>
       <c r="K19">
-        <v>1.224932770147589</v>
+        <v>2.270279172603153</v>
       </c>
       <c r="L19">
-        <v>0.3563647769519065</v>
+        <v>0.2486204976342066</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.73941812518558</v>
+        <v>2.58572176793956</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.300587685630603</v>
+        <v>2.609429082493364</v>
       </c>
       <c r="C20">
-        <v>0.6927133496438387</v>
+        <v>0.1661768382620608</v>
       </c>
       <c r="D20">
-        <v>0.004797541706444974</v>
+        <v>0.005856773699441931</v>
       </c>
       <c r="E20">
-        <v>0.01777582812981926</v>
+        <v>0.03130499415941834</v>
       </c>
       <c r="F20">
-        <v>3.74395661548175</v>
+        <v>3.121723547609861</v>
       </c>
       <c r="G20">
-        <v>0.0008136290476978836</v>
+        <v>0.000845984120312416</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06334795548618644</v>
+        <v>0.08780402657755459</v>
       </c>
       <c r="K20">
-        <v>1.273831878594848</v>
+        <v>2.354455993587948</v>
       </c>
       <c r="L20">
-        <v>0.368462844102055</v>
+        <v>0.2563577531847443</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.730849101817299</v>
+        <v>2.584859853474256</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.975365592050537</v>
+        <v>2.911848152285756</v>
       </c>
       <c r="C21">
-        <v>0.7920105335698793</v>
+        <v>0.1894531269803537</v>
       </c>
       <c r="D21">
-        <v>0.005745492984637224</v>
+        <v>0.006441898049622807</v>
       </c>
       <c r="E21">
-        <v>0.01791076048028017</v>
+        <v>0.03289592570373046</v>
       </c>
       <c r="F21">
-        <v>4.060345063066848</v>
+        <v>3.307999882416226</v>
       </c>
       <c r="G21">
-        <v>0.0008015175511908457</v>
+        <v>0.0008369594768721917</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06347224823283781</v>
+        <v>0.08956411649623419</v>
       </c>
       <c r="K21">
-        <v>1.441951881838463</v>
+        <v>2.642510702220932</v>
       </c>
       <c r="L21">
-        <v>0.4101294404550373</v>
+        <v>0.2828870930782159</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.706055667850848</v>
+        <v>2.585534523334474</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.429732229044646</v>
+        <v>3.114219281254407</v>
       </c>
       <c r="C22">
-        <v>0.8587670299062893</v>
+        <v>0.2049840380215642</v>
       </c>
       <c r="D22">
-        <v>0.006437843439449864</v>
+        <v>0.006823715010874309</v>
       </c>
       <c r="E22">
-        <v>0.01801344585744502</v>
+        <v>0.03397344097807853</v>
       </c>
       <c r="F22">
-        <v>4.277720683318989</v>
+        <v>3.435215356508024</v>
       </c>
       <c r="G22">
-        <v>0.0007936497348112181</v>
+        <v>0.0008311356691828122</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06363961094274018</v>
+        <v>0.09081737529140455</v>
       </c>
       <c r="K22">
-        <v>1.555107528947531</v>
+        <v>2.835146678801834</v>
       </c>
       <c r="L22">
-        <v>0.4382230677786509</v>
+        <v>0.3006653205820129</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.693123987863572</v>
+        <v>2.588834067549641</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.185888643655346</v>
+        <v>3.005744537257044</v>
       </c>
       <c r="C23">
-        <v>0.8229493801907779</v>
+        <v>0.196662887272808</v>
       </c>
       <c r="D23">
-        <v>0.006060882149359514</v>
+        <v>0.006619954457949717</v>
       </c>
       <c r="E23">
-        <v>0.01795724792188658</v>
+        <v>0.0333947274227917</v>
       </c>
       <c r="F23">
-        <v>4.160650602266458</v>
+        <v>3.366785028994542</v>
       </c>
       <c r="G23">
-        <v>0.0007978458198107941</v>
+        <v>0.0008342377074418442</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06354198096844144</v>
+        <v>0.09013862050271015</v>
       </c>
       <c r="K23">
-        <v>1.494384676867384</v>
+        <v>2.731900659002378</v>
       </c>
       <c r="L23">
-        <v>0.4231430177607791</v>
+        <v>0.2911336442161883</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.699706252092312</v>
+        <v>2.586798100683097</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.289759650397173</v>
+        <v>2.604558800675704</v>
       </c>
       <c r="C24">
-        <v>0.6911179480594001</v>
+        <v>0.1658011647544129</v>
       </c>
       <c r="D24">
-        <v>0.004783114714722814</v>
+        <v>0.005847193520326144</v>
       </c>
       <c r="E24">
-        <v>0.01777385370519369</v>
+        <v>0.03127959221818521</v>
       </c>
       <c r="F24">
-        <v>3.738946833108969</v>
+        <v>3.118764460517468</v>
       </c>
       <c r="G24">
-        <v>0.000813828074302508</v>
+        <v>0.0008461329987339365</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06334728843770421</v>
+        <v>0.08777690074536082</v>
       </c>
       <c r="K24">
-        <v>1.271133196088314</v>
+        <v>2.349814870511068</v>
       </c>
       <c r="L24">
-        <v>0.3677948875786399</v>
+        <v>0.2559309564446579</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.731305327332407</v>
+        <v>2.58489422895309</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.369987496634508</v>
+        <v>2.189011343847369</v>
       </c>
       <c r="C25">
-        <v>0.5552695943969752</v>
+        <v>0.13361570807416</v>
       </c>
       <c r="D25">
-        <v>0.003649092239458085</v>
+        <v>0.005008395355178052</v>
       </c>
       <c r="E25">
-        <v>0.01763246956938547</v>
+        <v>0.02914444286028051</v>
       </c>
       <c r="F25">
-        <v>3.322127897331853</v>
+        <v>2.871754845188306</v>
       </c>
       <c r="G25">
-        <v>0.0008313853176554858</v>
+        <v>0.0008593353708321612</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06346887446552074</v>
+        <v>0.08562992070157094</v>
       </c>
       <c r="K25">
-        <v>1.041756030326027</v>
+        <v>1.953485063930231</v>
       </c>
       <c r="L25">
-        <v>0.3111587999870977</v>
+        <v>0.2195824035544263</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.777631931718432</v>
+        <v>2.593881876973981</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_40/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.894751629645725</v>
+        <v>1.188992101407877</v>
       </c>
       <c r="C2">
-        <v>0.1106060178123585</v>
+        <v>0.09735074787498377</v>
       </c>
       <c r="D2">
-        <v>0.004383924777600967</v>
+        <v>0.05441208384457497</v>
       </c>
       <c r="E2">
-        <v>0.0276823863811142</v>
+        <v>0.04286197579332374</v>
       </c>
       <c r="F2">
-        <v>2.704578554044261</v>
+        <v>1.12092674649017</v>
       </c>
       <c r="G2">
-        <v>0.000869429089168295</v>
+        <v>0.8605939857806817</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01158815167115293</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08435255930585939</v>
+        <v>0.6287598533120757</v>
       </c>
       <c r="K2">
-        <v>1.672294984419494</v>
+        <v>0.6485728592194349</v>
       </c>
       <c r="L2">
-        <v>0.1939495182660878</v>
+        <v>0.05589423647188241</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.090727789836563</v>
       </c>
       <c r="N2">
-        <v>2.608795982461785</v>
+        <v>0.2227652770402813</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>1.168116105805844</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.70128070694787</v>
+        <v>1.040748360329189</v>
       </c>
       <c r="C3">
-        <v>0.09532808840482687</v>
+        <v>0.08554359762058539</v>
       </c>
       <c r="D3">
-        <v>0.003955633479263199</v>
+        <v>0.04810904368576985</v>
       </c>
       <c r="E3">
-        <v>0.02675321652723106</v>
+        <v>0.03937083258345631</v>
       </c>
       <c r="F3">
-        <v>2.599156820010293</v>
+        <v>1.080848237253207</v>
       </c>
       <c r="G3">
-        <v>0.0008765260260831242</v>
+        <v>0.830314253697523</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01516539844690357</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08365820103875166</v>
+        <v>0.6199843128789126</v>
       </c>
       <c r="K3">
-        <v>1.487057658433997</v>
+        <v>0.6394667582916327</v>
       </c>
       <c r="L3">
-        <v>0.1771664957264747</v>
+        <v>0.05258958062331232</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.9502600534304975</v>
       </c>
       <c r="N3">
-        <v>2.623556337959172</v>
+        <v>0.1980697284867077</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>1.207542988074294</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.585024864644282</v>
+        <v>0.9500227235738237</v>
       </c>
       <c r="C4">
-        <v>0.08606985590729721</v>
+        <v>0.07830804496818189</v>
       </c>
       <c r="D4">
-        <v>0.003689983150222176</v>
+        <v>0.04424289694764383</v>
       </c>
       <c r="E4">
-        <v>0.02621106188197508</v>
+        <v>0.03722366953155642</v>
       </c>
       <c r="F4">
-        <v>2.537929359847936</v>
+        <v>1.057297935641486</v>
       </c>
       <c r="G4">
-        <v>0.0008810171199000738</v>
+        <v>0.812703324161518</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01768835491374665</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08331103968691878</v>
+        <v>0.6151845315344247</v>
       </c>
       <c r="K4">
-        <v>1.375564684552188</v>
+        <v>0.6345140807346823</v>
       </c>
       <c r="L4">
-        <v>0.1671174960314872</v>
+        <v>0.05054241643774304</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.8642772897980819</v>
       </c>
       <c r="N4">
-        <v>2.634759822597829</v>
+        <v>0.1829149887151758</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>1.232650728959566</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.538233093879199</v>
+        <v>0.9131146587339742</v>
       </c>
       <c r="C5">
-        <v>0.0823233233140428</v>
+        <v>0.07536142557759717</v>
       </c>
       <c r="D5">
-        <v>0.003581039585363044</v>
+        <v>0.04266799872180371</v>
       </c>
       <c r="E5">
-        <v>0.02599698074218004</v>
+        <v>0.0363473291951113</v>
       </c>
       <c r="F5">
-        <v>2.513807012325074</v>
+        <v>1.04795564402604</v>
       </c>
       <c r="G5">
-        <v>0.0008828818313690464</v>
+        <v>0.8057621024369723</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01879544550353091</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08318874940990995</v>
+        <v>0.6133714992239732</v>
       </c>
       <c r="K5">
-        <v>1.330642309438474</v>
+        <v>0.6326505304552015</v>
       </c>
       <c r="L5">
-        <v>0.1630820947400693</v>
+        <v>0.04970302980385988</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.8292936649816909</v>
       </c>
       <c r="N5">
-        <v>2.639842347457474</v>
+        <v>0.176739572762294</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>1.243103848348436</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.530497075914866</v>
+        <v>0.9069896133077293</v>
       </c>
       <c r="C6">
-        <v>0.08170267498256578</v>
+        <v>0.07487221248515397</v>
       </c>
       <c r="D6">
-        <v>0.003562907658594128</v>
+        <v>0.0424065122268118</v>
       </c>
       <c r="E6">
-        <v>0.02596183870393354</v>
+        <v>0.03620171895247815</v>
       </c>
       <c r="F6">
-        <v>2.509850084096087</v>
+        <v>1.04641941974775</v>
       </c>
       <c r="G6">
-        <v>0.0008831935797148218</v>
+        <v>0.8046234133915675</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01898395676092651</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08316958129192642</v>
+        <v>0.6130789351869197</v>
       </c>
       <c r="K6">
-        <v>1.32321244218565</v>
+        <v>0.6323502670233623</v>
       </c>
       <c r="L6">
-        <v>0.1624154909541318</v>
+        <v>0.04956332208297454</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.8234876584886024</v>
       </c>
       <c r="N6">
-        <v>2.640716930073012</v>
+        <v>0.1757141129981505</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>1.244852827090554</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.584391521267037</v>
+        <v>0.9495247263307363</v>
       </c>
       <c r="C7">
-        <v>0.08601922823173425</v>
+        <v>0.0782683000982729</v>
       </c>
       <c r="D7">
-        <v>0.003688516704105638</v>
+        <v>0.0442216554558641</v>
       </c>
       <c r="E7">
-        <v>0.02620814732450327</v>
+        <v>0.03721185696407758</v>
       </c>
       <c r="F7">
-        <v>2.537600749985458</v>
+        <v>1.057170925879376</v>
       </c>
       <c r="G7">
-        <v>0.0008810421268780264</v>
+        <v>0.8126087739460388</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0177029698601151</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08330931370253936</v>
+        <v>0.6151595081826997</v>
       </c>
       <c r="K7">
-        <v>1.37495683940557</v>
+        <v>0.6344883293881587</v>
       </c>
       <c r="L7">
-        <v>0.1670628376522743</v>
+        <v>0.05053111780823372</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.8638052803827065</v>
       </c>
       <c r="N7">
-        <v>2.634826300926932</v>
+        <v>0.1828317062189129</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>1.232790812501783</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.827482590724287</v>
+        <v>1.137809119012019</v>
       </c>
       <c r="C8">
-        <v>0.1053099368735815</v>
+        <v>0.09327571717228977</v>
       </c>
       <c r="D8">
-        <v>0.004236793978746434</v>
+        <v>0.05223772425972584</v>
       </c>
       <c r="E8">
-        <v>0.02735594785704087</v>
+        <v>0.04165869477167128</v>
       </c>
       <c r="F8">
-        <v>2.667469711558837</v>
+        <v>1.106881034942163</v>
       </c>
       <c r="G8">
-        <v>0.0008718490003590764</v>
+        <v>0.8499429738662627</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01275189426887102</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08409625645921892</v>
+        <v>0.6256088025472337</v>
       </c>
       <c r="K8">
-        <v>1.60792689834031</v>
+        <v>0.645296948097716</v>
       </c>
       <c r="L8">
-        <v>0.1881067059206245</v>
+        <v>0.05475817623026913</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.042232313619706</v>
       </c>
       <c r="N8">
-        <v>2.613427813469031</v>
+        <v>0.2142473523112329</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>1.18152094028164</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.326978021803541</v>
+        <v>1.509940611037109</v>
       </c>
       <c r="C9">
-        <v>0.1443342552619669</v>
+        <v>0.1228954578049013</v>
       </c>
       <c r="D9">
-        <v>0.005291881532748732</v>
+        <v>0.06800869353590855</v>
       </c>
       <c r="E9">
-        <v>0.02984558489168876</v>
+        <v>0.05037223058842955</v>
       </c>
       <c r="F9">
-        <v>2.952493088155023</v>
+        <v>1.213303187035336</v>
       </c>
       <c r="G9">
-        <v>0.0008548335709631424</v>
+        <v>0.9314773047058225</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.005780501796544935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08630343171000021</v>
+        <v>0.6510096499837772</v>
       </c>
       <c r="K9">
-        <v>2.085153079948526</v>
+        <v>0.671837184652972</v>
       </c>
       <c r="L9">
-        <v>0.2316342600981187</v>
+        <v>0.06293241289657558</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.394799074897179</v>
       </c>
       <c r="N9">
-        <v>2.589490788873064</v>
+        <v>0.2760109634570682</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>1.088335537806778</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.711939218206908</v>
+        <v>1.775902068655625</v>
       </c>
       <c r="C10">
-        <v>0.1740774729641146</v>
+        <v>0.1455703964940227</v>
       </c>
       <c r="D10">
-        <v>0.006057216827556999</v>
+        <v>0.07839980335158714</v>
       </c>
       <c r="E10">
-        <v>0.03184136490986234</v>
+        <v>0.05488675470617999</v>
       </c>
       <c r="F10">
-        <v>3.184317032892636</v>
+        <v>1.283062328291194</v>
       </c>
       <c r="G10">
-        <v>0.0008428778199977005</v>
+        <v>0.9854136095222117</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.002853937806619911</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0883843101422066</v>
+        <v>0.6671186019709552</v>
       </c>
       <c r="K10">
-        <v>2.452125614542069</v>
+        <v>0.687423415839433</v>
       </c>
       <c r="L10">
-        <v>0.2653444908460187</v>
+        <v>0.06667045760772083</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.649939284938711</v>
       </c>
       <c r="N10">
-        <v>2.584480401988372</v>
+        <v>0.3119186118927644</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>1.020525079194055</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.891987199209154</v>
+        <v>1.809384724980561</v>
       </c>
       <c r="C11">
-        <v>0.1879272069575393</v>
+        <v>0.1621021084094991</v>
       </c>
       <c r="D11">
-        <v>0.006404027666597756</v>
+        <v>0.07240957354553501</v>
       </c>
       <c r="E11">
-        <v>0.03279068944851993</v>
+        <v>0.04225142884498112</v>
       </c>
       <c r="F11">
-        <v>3.295620735972705</v>
+        <v>1.190755604609365</v>
       </c>
       <c r="G11">
-        <v>0.0008375397495908886</v>
+        <v>0.9102941319945757</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02124022847908336</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08944420857125834</v>
+        <v>0.6247322360966479</v>
       </c>
       <c r="K11">
-        <v>2.623600417821763</v>
+        <v>0.631103905939888</v>
       </c>
       <c r="L11">
-        <v>0.281143311619843</v>
+        <v>0.05365901236913828</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.710517967020536</v>
       </c>
       <c r="N11">
-        <v>2.585328463636301</v>
+        <v>0.2490851759055914</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.9602842031872836</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.960969077765753</v>
+        <v>1.779901858402582</v>
       </c>
       <c r="C12">
-        <v>0.1932256988424115</v>
+        <v>0.1715672553038132</v>
       </c>
       <c r="D12">
-        <v>0.006535246276996531</v>
+        <v>0.0653965551204081</v>
       </c>
       <c r="E12">
-        <v>0.03315661072329767</v>
+        <v>0.03323804436170086</v>
       </c>
       <c r="F12">
-        <v>3.338699654591522</v>
+        <v>1.099896470638271</v>
       </c>
       <c r="G12">
-        <v>0.0008355312338859277</v>
+        <v>0.8369772504810555</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06006384346935079</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08986311340309427</v>
+        <v>0.5860799341453458</v>
       </c>
       <c r="K12">
-        <v>2.689276536333949</v>
+        <v>0.581813707184935</v>
       </c>
       <c r="L12">
-        <v>0.2872006889870846</v>
+        <v>0.04829596144985515</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.706423785514687</v>
       </c>
       <c r="N12">
-        <v>2.586136562028315</v>
+        <v>0.195197171982386</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.9302066149905572</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.946075358233827</v>
+        <v>1.700419411587973</v>
       </c>
       <c r="C13">
-        <v>0.1920820403656904</v>
+        <v>0.1760225008187462</v>
       </c>
       <c r="D13">
-        <v>0.006506989435003163</v>
+        <v>0.05724350466306305</v>
       </c>
       <c r="E13">
-        <v>0.03307750887550753</v>
+        <v>0.02650494668511794</v>
       </c>
       <c r="F13">
-        <v>3.329378915170167</v>
+        <v>1.004851935933431</v>
       </c>
       <c r="G13">
-        <v>0.0008359632569630338</v>
+        <v>0.7606743486297631</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1162656708858663</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0897720931425674</v>
+        <v>0.5479434151724263</v>
       </c>
       <c r="K13">
-        <v>2.67509746152416</v>
+        <v>0.5349498301682232</v>
       </c>
       <c r="L13">
-        <v>0.285892665563324</v>
+        <v>0.04839969180653902</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.652252371510059</v>
       </c>
       <c r="N13">
-        <v>2.585940230057844</v>
+        <v>0.1454106221694644</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.9205527899476178</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.897645746790374</v>
+        <v>1.622570932819485</v>
       </c>
       <c r="C14">
-        <v>0.1883619881032814</v>
+        <v>0.1768702035852101</v>
       </c>
       <c r="D14">
-        <v>0.006414824790770268</v>
+        <v>0.05111452237528624</v>
       </c>
       <c r="E14">
-        <v>0.03282066220656965</v>
+        <v>0.02320254466004812</v>
       </c>
       <c r="F14">
-        <v>3.299145664537122</v>
+        <v>0.9372997196202135</v>
       </c>
       <c r="G14">
-        <v>0.0008373742590148082</v>
+        <v>0.7066161858429041</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1660780171632581</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08947831287831676</v>
+        <v>0.5217901275701138</v>
       </c>
       <c r="K14">
-        <v>2.628988205839164</v>
+        <v>0.5037247823373079</v>
       </c>
       <c r="L14">
-        <v>0.281640109708718</v>
+        <v>0.05174180610794643</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.591913490033789</v>
       </c>
       <c r="N14">
-        <v>2.585384959457073</v>
+        <v>0.1136629996987608</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.9236126539738443</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.868088531753244</v>
+        <v>1.593296326771565</v>
       </c>
       <c r="C15">
-        <v>0.1860906192166425</v>
+        <v>0.175954357877572</v>
       </c>
       <c r="D15">
-        <v>0.006358359567702365</v>
+        <v>0.04936422441608812</v>
       </c>
       <c r="E15">
-        <v>0.03266418880938815</v>
+        <v>0.0225513728135871</v>
       </c>
       <c r="F15">
-        <v>3.280750950482286</v>
+        <v>0.91983493043994</v>
       </c>
       <c r="G15">
-        <v>0.0008382401684171064</v>
+        <v>0.6927037827169187</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1788107684440945</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08930068812282954</v>
+        <v>0.5154961273170358</v>
       </c>
       <c r="K15">
-        <v>2.600844456233489</v>
+        <v>0.4964769365159221</v>
       </c>
       <c r="L15">
-        <v>0.2790452769146015</v>
+        <v>0.05286488305314485</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.566801712093508</v>
       </c>
       <c r="N15">
-        <v>2.585109429604401</v>
+        <v>0.1060154853294719</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.927746108179619</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.700279550572645</v>
+        <v>1.496624192498189</v>
       </c>
       <c r="C16">
-        <v>0.1731794491232534</v>
+        <v>0.1650087006251795</v>
       </c>
       <c r="D16">
-        <v>0.00603453148613653</v>
+        <v>0.04679284564896591</v>
       </c>
       <c r="E16">
-        <v>0.03178019759585382</v>
+        <v>0.02216889816896561</v>
       </c>
       <c r="F16">
-        <v>3.177168191763229</v>
+        <v>0.9098641977835698</v>
       </c>
       <c r="G16">
-        <v>0.0008432285694470742</v>
+        <v>0.6853234900741683</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1672896176439309</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08831742730077252</v>
+        <v>0.5162822516545305</v>
       </c>
       <c r="K16">
-        <v>2.441018107801085</v>
+        <v>0.4993245901157728</v>
       </c>
       <c r="L16">
-        <v>0.2643220008893934</v>
+        <v>0.05116475580561008</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.468813890849447</v>
       </c>
       <c r="N16">
-        <v>2.584491004359762</v>
+        <v>0.1022700161425121</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.9561347101622202</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.598659461668774</v>
+        <v>1.463763810266812</v>
       </c>
       <c r="C17">
-        <v>0.1653460741723194</v>
+        <v>0.1562055651293548</v>
       </c>
       <c r="D17">
-        <v>0.005835582018759666</v>
+        <v>0.04800995763414306</v>
       </c>
       <c r="E17">
-        <v>0.03124883322996119</v>
+        <v>0.02336504534799921</v>
       </c>
       <c r="F17">
-        <v>3.11518196708758</v>
+        <v>0.9378780006286078</v>
       </c>
       <c r="G17">
-        <v>0.0008463134963620578</v>
+        <v>0.7082517840239149</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.130227505460681</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08774409861992893</v>
+        <v>0.5307721187875103</v>
       </c>
       <c r="K17">
-        <v>2.344193006589279</v>
+        <v>0.5179981454126228</v>
       </c>
       <c r="L17">
-        <v>0.2554140013749446</v>
+        <v>0.04754416401301143</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.42578664211976</v>
       </c>
       <c r="N17">
-        <v>2.584937894392127</v>
+        <v>0.1153669097464345</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.9763554770759519</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.540667940914943</v>
+        <v>1.481501840824961</v>
       </c>
       <c r="C18">
-        <v>0.1608700617821057</v>
+        <v>0.1483290231340675</v>
       </c>
       <c r="D18">
-        <v>0.005721019101981639</v>
+        <v>0.05278118131727183</v>
       </c>
       <c r="E18">
-        <v>0.03094707546979869</v>
+        <v>0.02735272559700608</v>
       </c>
       <c r="F18">
-        <v>3.08007346114222</v>
+        <v>1.002983990228167</v>
       </c>
       <c r="G18">
-        <v>0.0008480974423892796</v>
+        <v>0.7608409780511636</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07755438740006326</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08742491703377553</v>
+        <v>0.5590851584208991</v>
       </c>
       <c r="K18">
-        <v>2.288922928185855</v>
+        <v>0.5533303311245206</v>
       </c>
       <c r="L18">
-        <v>0.250333492699923</v>
+        <v>0.04495152064626451</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.424541692778035</v>
       </c>
       <c r="N18">
-        <v>2.585486840907862</v>
+        <v>0.1479837496166283</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.9949065464719467</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.521108928459</v>
+        <v>1.538622303187054</v>
       </c>
       <c r="C19">
-        <v>0.1593594049783604</v>
+        <v>0.1419017617135125</v>
       </c>
       <c r="D19">
-        <v>0.005682205109296845</v>
+        <v>0.0603558779706006</v>
       </c>
       <c r="E19">
-        <v>0.03084555625991747</v>
+        <v>0.03526186706276491</v>
       </c>
       <c r="F19">
-        <v>3.068277219354343</v>
+        <v>1.095854370813456</v>
       </c>
       <c r="G19">
-        <v>0.0008487031465308679</v>
+        <v>0.8356445132686616</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03178059072777017</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08731862895199782</v>
+        <v>0.5973881547527071</v>
       </c>
       <c r="K19">
-        <v>2.270279172603153</v>
+        <v>0.6012588907995777</v>
       </c>
       <c r="L19">
-        <v>0.2486204976342066</v>
+        <v>0.04794997487533781</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.45674687937526</v>
       </c>
       <c r="N19">
-        <v>2.58572176793956</v>
+        <v>0.1995083538561886</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>1.015277220488681</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.609429082493364</v>
+        <v>1.705466148333556</v>
       </c>
       <c r="C20">
-        <v>0.1661768382620608</v>
+        <v>0.1396219128127143</v>
       </c>
       <c r="D20">
-        <v>0.005856773699441931</v>
+        <v>0.07561571792941635</v>
       </c>
       <c r="E20">
-        <v>0.03130499415941834</v>
+        <v>0.05361806053184459</v>
       </c>
       <c r="F20">
-        <v>3.121723547609861</v>
+        <v>1.263683239966142</v>
       </c>
       <c r="G20">
-        <v>0.000845984120312416</v>
+        <v>0.9703305565214606</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.003483864871965281</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08780402657755459</v>
+        <v>0.6624006570112897</v>
       </c>
       <c r="K20">
-        <v>2.354455993587948</v>
+        <v>0.6827477119233407</v>
       </c>
       <c r="L20">
-        <v>0.2563577531847443</v>
+        <v>0.06559050035964376</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.582496444248534</v>
       </c>
       <c r="N20">
-        <v>2.584859853474256</v>
+        <v>0.3020754337826617</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>1.037776526806233</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.911848152285756</v>
+        <v>1.926123626700672</v>
       </c>
       <c r="C21">
-        <v>0.1894531269803537</v>
+        <v>0.15608148131831</v>
       </c>
       <c r="D21">
-        <v>0.006441898049622807</v>
+        <v>0.0855607966497729</v>
       </c>
       <c r="E21">
-        <v>0.03289592570373046</v>
+        <v>0.06006309629004569</v>
       </c>
       <c r="F21">
-        <v>3.307999882416226</v>
+        <v>1.342133929883744</v>
       </c>
       <c r="G21">
-        <v>0.0008369594768721917</v>
+        <v>1.032111589221699</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.001429359655362283</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08956411649623419</v>
+        <v>0.6850549948557756</v>
       </c>
       <c r="K21">
-        <v>2.642510702220932</v>
+        <v>0.7077158812324527</v>
       </c>
       <c r="L21">
-        <v>0.2828870930782159</v>
+        <v>0.07193054733496496</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.789150652975707</v>
       </c>
       <c r="N21">
-        <v>2.585534523334474</v>
+        <v>0.3447334445902612</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.993818083985559</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.114219281254407</v>
+        <v>2.065989577525613</v>
       </c>
       <c r="C22">
-        <v>0.2049840380215642</v>
+        <v>0.1672660158760522</v>
       </c>
       <c r="D22">
-        <v>0.006823715010874309</v>
+        <v>0.09144308597375073</v>
       </c>
       <c r="E22">
-        <v>0.03397344097807853</v>
+        <v>0.06331573343977226</v>
       </c>
       <c r="F22">
-        <v>3.435215356508024</v>
+        <v>1.387339682177526</v>
       </c>
       <c r="G22">
-        <v>0.0008311356691828122</v>
+        <v>1.067798120123427</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0006491773700982861</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09081737529140455</v>
+        <v>0.6975836741534351</v>
       </c>
       <c r="K22">
-        <v>2.835146678801834</v>
+        <v>0.7209768781342376</v>
       </c>
       <c r="L22">
-        <v>0.3006653205820129</v>
+        <v>0.07493922315305213</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.921716283098334</v>
       </c>
       <c r="N22">
-        <v>2.588834067549641</v>
+        <v>0.3677668375551804</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.9639297949024446</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.005744537257044</v>
+        <v>1.9912658003866</v>
       </c>
       <c r="C23">
-        <v>0.196662887272808</v>
+        <v>0.1612882406615483</v>
       </c>
       <c r="D23">
-        <v>0.006619954457949717</v>
+        <v>0.0883013917468034</v>
       </c>
       <c r="E23">
-        <v>0.0333947274227917</v>
+        <v>0.06157806476573668</v>
       </c>
       <c r="F23">
-        <v>3.366785028994542</v>
+        <v>1.363078371018887</v>
       </c>
       <c r="G23">
-        <v>0.0008342377074418442</v>
+        <v>1.048624197892792</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.001026395600046026</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09013862050271015</v>
+        <v>0.6908278450263765</v>
       </c>
       <c r="K23">
-        <v>2.731900659002378</v>
+        <v>0.7138229183737224</v>
       </c>
       <c r="L23">
-        <v>0.2911336442161883</v>
+        <v>0.07333236190733672</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.850889848077117</v>
       </c>
       <c r="N23">
-        <v>2.586798100683097</v>
+        <v>0.3554645879984832</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.9797899300234292</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.604558800675704</v>
+        <v>1.709800980780955</v>
       </c>
       <c r="C24">
-        <v>0.1658011647544129</v>
+        <v>0.1388174609530068</v>
       </c>
       <c r="D24">
-        <v>0.005847193520326144</v>
+        <v>0.07644739489882113</v>
       </c>
       <c r="E24">
-        <v>0.03127959221818521</v>
+        <v>0.05502974894786128</v>
       </c>
       <c r="F24">
-        <v>3.118764460517468</v>
+        <v>1.274039796937942</v>
       </c>
       <c r="G24">
-        <v>0.0008461329987339365</v>
+        <v>0.9787045589042407</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.003289358371825868</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08777690074536082</v>
+        <v>0.6667132927085078</v>
       </c>
       <c r="K24">
-        <v>2.349814870511068</v>
+        <v>0.6883538880595665</v>
       </c>
       <c r="L24">
-        <v>0.2559309564446579</v>
+        <v>0.06726512646170235</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.584159405921156</v>
       </c>
       <c r="N24">
-        <v>2.58489422895309</v>
+        <v>0.3090510353466556</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>1.041833125099199</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.189011343847369</v>
+        <v>1.408874551060734</v>
       </c>
       <c r="C25">
-        <v>0.13361570807416</v>
+        <v>0.1148504752194128</v>
       </c>
       <c r="D25">
-        <v>0.005008395355178052</v>
+        <v>0.06373364382832136</v>
       </c>
       <c r="E25">
-        <v>0.02914444286028051</v>
+        <v>0.0480124790144405</v>
       </c>
       <c r="F25">
-        <v>2.871754845188306</v>
+        <v>1.183475643503257</v>
       </c>
       <c r="G25">
-        <v>0.0008593353708321612</v>
+        <v>0.9084499897146827</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.007352072003010635</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08562992070157094</v>
+        <v>0.6435770365503117</v>
       </c>
       <c r="K25">
-        <v>1.953485063930231</v>
+        <v>0.6640443627698502</v>
       </c>
       <c r="L25">
-        <v>0.2195824035544263</v>
+        <v>0.06072919013493916</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.299048636462146</v>
       </c>
       <c r="N25">
-        <v>2.593881876973981</v>
+        <v>0.259271743555928</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1.112726040281604</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_40/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.188992101407877</v>
+        <v>1.107859330009887</v>
       </c>
       <c r="C2">
-        <v>0.09735074787498377</v>
+        <v>0.1096652913199989</v>
       </c>
       <c r="D2">
-        <v>0.05441208384457497</v>
+        <v>0.05970778904789142</v>
       </c>
       <c r="E2">
-        <v>0.04286197579332374</v>
+        <v>0.0419822645937753</v>
       </c>
       <c r="F2">
-        <v>1.12092674649017</v>
+        <v>1.017239751014849</v>
       </c>
       <c r="G2">
-        <v>0.8605939857806817</v>
+        <v>0.7535775685633723</v>
       </c>
       <c r="H2">
-        <v>0.01158815167115293</v>
+        <v>0.009124089993148149</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6287598533120757</v>
+        <v>0.5818567960148613</v>
       </c>
       <c r="K2">
-        <v>0.6485728592194349</v>
+        <v>0.5598896066038535</v>
       </c>
       <c r="L2">
-        <v>0.05589423647188241</v>
+        <v>0.2398489258740426</v>
       </c>
       <c r="M2">
-        <v>1.090727789836563</v>
+        <v>0.18206340343691</v>
       </c>
       <c r="N2">
-        <v>0.2227652770402813</v>
+        <v>0.051408046653453</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.075112935930349</v>
       </c>
       <c r="P2">
-        <v>1.168116105805844</v>
+        <v>0.2437893597031007</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>1.082022666745107</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.040748360329189</v>
+        <v>0.9715740302081315</v>
       </c>
       <c r="C3">
-        <v>0.08554359762058539</v>
+        <v>0.09427299687304469</v>
       </c>
       <c r="D3">
-        <v>0.04810904368576985</v>
+        <v>0.05280372304096659</v>
       </c>
       <c r="E3">
-        <v>0.03937083258345631</v>
+        <v>0.03879181637148044</v>
       </c>
       <c r="F3">
-        <v>1.080848237253207</v>
+        <v>0.9850689033154154</v>
       </c>
       <c r="G3">
-        <v>0.830314253697523</v>
+        <v>0.7339104755644996</v>
       </c>
       <c r="H3">
-        <v>0.01516539844690357</v>
+        <v>0.01200887677716798</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6199843128789126</v>
+        <v>0.5712879494918042</v>
       </c>
       <c r="K3">
-        <v>0.6394667582916327</v>
+        <v>0.5554274880182462</v>
       </c>
       <c r="L3">
-        <v>0.05258958062331232</v>
+        <v>0.2426069162671851</v>
       </c>
       <c r="M3">
-        <v>0.9502600534304975</v>
+        <v>0.1774529042804538</v>
       </c>
       <c r="N3">
-        <v>0.1980697284867077</v>
+        <v>0.04870469741222472</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.9374665586111632</v>
       </c>
       <c r="P3">
-        <v>1.207542988074294</v>
+        <v>0.2173627997812702</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>1.119661244739666</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9500227235738237</v>
+        <v>0.8878676238009859</v>
       </c>
       <c r="C4">
-        <v>0.07830804496818189</v>
+        <v>0.08490085927260793</v>
       </c>
       <c r="D4">
-        <v>0.04424289694764383</v>
+        <v>0.04857711132067521</v>
       </c>
       <c r="E4">
-        <v>0.03722366953155642</v>
+        <v>0.03682622167152694</v>
       </c>
       <c r="F4">
-        <v>1.057297935641486</v>
+        <v>0.966114936632799</v>
       </c>
       <c r="G4">
-        <v>0.812703324161518</v>
+        <v>0.7227464388469684</v>
       </c>
       <c r="H4">
-        <v>0.01768835491374665</v>
+        <v>0.01404930176911839</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.6151845315344247</v>
+        <v>0.5650372904658809</v>
       </c>
       <c r="K4">
-        <v>0.6345140807346823</v>
+        <v>0.5531289075098869</v>
       </c>
       <c r="L4">
-        <v>0.05054241643774304</v>
+        <v>0.2443475500206915</v>
       </c>
       <c r="M4">
-        <v>0.8642772897980819</v>
+        <v>0.1754313725853542</v>
       </c>
       <c r="N4">
-        <v>0.1829149887151758</v>
+        <v>0.0470220156058847</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8530586715986601</v>
       </c>
       <c r="P4">
-        <v>1.232650728959566</v>
+        <v>0.2011719687679943</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>1.143589492084558</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9131146587339742</v>
+        <v>0.8537421492000021</v>
       </c>
       <c r="C5">
-        <v>0.07536142557759717</v>
+        <v>0.08109952433444789</v>
       </c>
       <c r="D5">
-        <v>0.04266799872180371</v>
+        <v>0.04685753605606635</v>
       </c>
       <c r="E5">
-        <v>0.0363473291951113</v>
+        <v>0.03602320081096266</v>
       </c>
       <c r="F5">
-        <v>1.04795564402604</v>
+        <v>0.9585829743125842</v>
       </c>
       <c r="G5">
-        <v>0.8057621024369723</v>
+        <v>0.7184154980626261</v>
       </c>
       <c r="H5">
-        <v>0.01879544550353091</v>
+        <v>0.0149459386086217</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.6133714992239732</v>
+        <v>0.5625477534461254</v>
       </c>
       <c r="K5">
-        <v>0.6326505304552015</v>
+        <v>0.5522989287156221</v>
       </c>
       <c r="L5">
-        <v>0.04970302980385988</v>
+        <v>0.2450684571111807</v>
       </c>
       <c r="M5">
-        <v>0.8292936649816909</v>
+        <v>0.1748080686985887</v>
       </c>
       <c r="N5">
-        <v>0.176739572762294</v>
+        <v>0.04633009125361198</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8186798585375641</v>
       </c>
       <c r="P5">
-        <v>1.243103848348436</v>
+        <v>0.1945812881536</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>1.153542290659562</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9069896133077293</v>
+        <v>0.8480745503285334</v>
       </c>
       <c r="C6">
-        <v>0.07487221248515397</v>
+        <v>0.08046934152706342</v>
       </c>
       <c r="D6">
-        <v>0.0424065122268118</v>
+        <v>0.04657216158129529</v>
       </c>
       <c r="E6">
-        <v>0.03620171895247815</v>
+        <v>0.03588972745420982</v>
       </c>
       <c r="F6">
-        <v>1.04641941974775</v>
+        <v>0.9573436339206012</v>
       </c>
       <c r="G6">
-        <v>0.8046234133915675</v>
+        <v>0.7177092393404934</v>
       </c>
       <c r="H6">
-        <v>0.01898395676092651</v>
+        <v>0.01509868670309739</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.6130789351869197</v>
+        <v>0.5621377831843404</v>
       </c>
       <c r="K6">
-        <v>0.6323502670233623</v>
+        <v>0.5521674360808007</v>
       </c>
       <c r="L6">
-        <v>0.04956332208297454</v>
+        <v>0.2451888546670133</v>
       </c>
       <c r="M6">
-        <v>0.8234876584886024</v>
+        <v>0.1747165929334855</v>
       </c>
       <c r="N6">
-        <v>0.1757141129981505</v>
+        <v>0.04621480846999404</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8129721223590991</v>
       </c>
       <c r="P6">
-        <v>1.244852827090554</v>
+        <v>0.1934873001700055</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>1.155207026666025</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9495247263307363</v>
+        <v>0.8867552926009239</v>
       </c>
       <c r="C7">
-        <v>0.0782683000982729</v>
+        <v>0.08452445629534111</v>
       </c>
       <c r="D7">
-        <v>0.0442216554558641</v>
+        <v>0.04871731077054164</v>
       </c>
       <c r="E7">
-        <v>0.03721185696407758</v>
+        <v>0.0368502350618396</v>
       </c>
       <c r="F7">
-        <v>1.057170925879376</v>
+        <v>0.9645937776899416</v>
       </c>
       <c r="G7">
-        <v>0.8126087739460388</v>
+        <v>0.7258091349001461</v>
       </c>
       <c r="H7">
-        <v>0.0177029698601151</v>
+        <v>0.01407250572231245</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.6151595081826997</v>
+        <v>0.5594423009075626</v>
       </c>
       <c r="K7">
-        <v>0.6344883293881587</v>
+        <v>0.5523754224790736</v>
       </c>
       <c r="L7">
-        <v>0.05053111780823372</v>
+        <v>0.2440185940941966</v>
       </c>
       <c r="M7">
-        <v>0.8638052803827065</v>
+        <v>0.1752041817466434</v>
       </c>
       <c r="N7">
-        <v>0.1828317062189129</v>
+        <v>0.04699969194362197</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8514316465045511</v>
       </c>
       <c r="P7">
-        <v>1.232790812501783</v>
+        <v>0.2010067780525304</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>1.143263338743878</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.137809119012019</v>
+        <v>1.058680375834598</v>
       </c>
       <c r="C8">
-        <v>0.09327571717228977</v>
+        <v>0.1032405872719977</v>
       </c>
       <c r="D8">
-        <v>0.05223772425972584</v>
+        <v>0.05787486167330513</v>
       </c>
       <c r="E8">
-        <v>0.04165869477167128</v>
+        <v>0.04100088064465446</v>
       </c>
       <c r="F8">
-        <v>1.106881034942163</v>
+        <v>1.001288360589641</v>
       </c>
       <c r="G8">
-        <v>0.8499429738662627</v>
+        <v>0.7570397153415627</v>
       </c>
       <c r="H8">
-        <v>0.01275189426887102</v>
+        <v>0.01009114063524462</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6256088025472337</v>
+        <v>0.5599753344997254</v>
       </c>
       <c r="K8">
-        <v>0.645296948097716</v>
+        <v>0.5558248568530821</v>
       </c>
       <c r="L8">
-        <v>0.05475817623026913</v>
+        <v>0.2397538109521555</v>
       </c>
       <c r="M8">
-        <v>1.042232313619706</v>
+        <v>0.179513896929322</v>
       </c>
       <c r="N8">
-        <v>0.2142473523112329</v>
+        <v>0.05043902471218686</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.023719484715627</v>
       </c>
       <c r="P8">
-        <v>1.18152094028164</v>
+        <v>0.2344143031459396</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>1.093438017690493</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.509940611037109</v>
+        <v>1.398361984598409</v>
       </c>
       <c r="C9">
-        <v>0.1228954578049013</v>
+        <v>0.1418369254899545</v>
       </c>
       <c r="D9">
-        <v>0.06800869353590855</v>
+        <v>0.07535399031175416</v>
       </c>
       <c r="E9">
-        <v>0.05037223058842955</v>
+        <v>0.04897747711746092</v>
       </c>
       <c r="F9">
-        <v>1.213303187035336</v>
+        <v>1.085168391830308</v>
       </c>
       <c r="G9">
-        <v>0.9314773047058225</v>
+        <v>0.8145849810780845</v>
       </c>
       <c r="H9">
-        <v>0.005780501796544935</v>
+        <v>0.004494503811701467</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6510096499837772</v>
+        <v>0.5828476959630251</v>
       </c>
       <c r="K9">
-        <v>0.671837184652972</v>
+        <v>0.5689853854187064</v>
       </c>
       <c r="L9">
-        <v>0.06293241289657558</v>
+        <v>0.233016491129348</v>
       </c>
       <c r="M9">
-        <v>1.394799074897179</v>
+        <v>0.1953173121514098</v>
       </c>
       <c r="N9">
-        <v>0.2760109634570682</v>
+        <v>0.05707214387802217</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.367089838584008</v>
       </c>
       <c r="P9">
-        <v>1.088335537806778</v>
+        <v>0.3005621931648221</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>1.004074137766668</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.775902068655625</v>
+        <v>1.636252538404818</v>
       </c>
       <c r="C10">
-        <v>0.1455703964940227</v>
+        <v>0.1691761845780491</v>
       </c>
       <c r="D10">
-        <v>0.07839980335158714</v>
+        <v>0.08790261000293498</v>
       </c>
       <c r="E10">
-        <v>0.05488675470617999</v>
+        <v>0.0532046387584213</v>
       </c>
       <c r="F10">
-        <v>1.283062328291194</v>
+        <v>1.130800089552153</v>
       </c>
       <c r="G10">
-        <v>0.9854136095222117</v>
+        <v>0.8711527609568179</v>
       </c>
       <c r="H10">
-        <v>0.002853937806619911</v>
+        <v>0.002236842839492326</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6671186019709552</v>
+        <v>0.5657296957341202</v>
       </c>
       <c r="K10">
-        <v>0.687423415839433</v>
+        <v>0.5710975293115581</v>
       </c>
       <c r="L10">
-        <v>0.06667045760772083</v>
+        <v>0.2246884330681382</v>
       </c>
       <c r="M10">
-        <v>1.649939284938711</v>
+        <v>0.2071719167553461</v>
       </c>
       <c r="N10">
-        <v>0.3119186118927644</v>
+        <v>0.05990759686037883</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.60779195907844</v>
       </c>
       <c r="P10">
-        <v>1.020525079194055</v>
+        <v>0.338767981857373</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.9386226766813053</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.809384724980561</v>
+        <v>1.664249864150094</v>
       </c>
       <c r="C11">
-        <v>0.1621021084094991</v>
+        <v>0.1819544695210027</v>
       </c>
       <c r="D11">
-        <v>0.07240957354553501</v>
+        <v>0.08333398120986857</v>
       </c>
       <c r="E11">
-        <v>0.04225142884498112</v>
+        <v>0.041214889459118</v>
       </c>
       <c r="F11">
-        <v>1.190755604609365</v>
+        <v>1.032535070643689</v>
       </c>
       <c r="G11">
-        <v>0.9102941319945757</v>
+        <v>0.8439489743718269</v>
       </c>
       <c r="H11">
-        <v>0.02124022847908336</v>
+        <v>0.02073305168649142</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6247322360966479</v>
+        <v>0.4747580931066864</v>
       </c>
       <c r="K11">
-        <v>0.631103905939888</v>
+        <v>0.5161366036183708</v>
       </c>
       <c r="L11">
-        <v>0.05365901236913828</v>
+        <v>0.2013154569029538</v>
       </c>
       <c r="M11">
-        <v>1.710517967020536</v>
+        <v>0.1905429215779932</v>
       </c>
       <c r="N11">
-        <v>0.2490851759055914</v>
+        <v>0.04915975321316512</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.653016792847836</v>
       </c>
       <c r="P11">
-        <v>0.9602842031872836</v>
+        <v>0.2714949881197128</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.8943767484596479</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.779901858402582</v>
+        <v>1.638892462711425</v>
       </c>
       <c r="C12">
-        <v>0.1715672553038132</v>
+        <v>0.1882450898272339</v>
       </c>
       <c r="D12">
-        <v>0.0653965551204081</v>
+        <v>0.07634941541427054</v>
       </c>
       <c r="E12">
-        <v>0.03323804436170086</v>
+        <v>0.03254303527439717</v>
       </c>
       <c r="F12">
-        <v>1.099896470638271</v>
+        <v>0.9474792513091614</v>
       </c>
       <c r="G12">
-        <v>0.8369772504810555</v>
+        <v>0.7966830526748083</v>
       </c>
       <c r="H12">
-        <v>0.06006384346935079</v>
+        <v>0.05955718743985727</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5860799341453458</v>
+        <v>0.4250452719617854</v>
       </c>
       <c r="K12">
-        <v>0.581813707184935</v>
+        <v>0.4737431292277137</v>
       </c>
       <c r="L12">
-        <v>0.04829596144985515</v>
+        <v>0.1853966317263875</v>
       </c>
       <c r="M12">
-        <v>1.706423785514687</v>
+        <v>0.1751256881674941</v>
       </c>
       <c r="N12">
-        <v>0.195197171982386</v>
+        <v>0.04577218807005101</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.643579596136902</v>
       </c>
       <c r="P12">
-        <v>0.9302066149905572</v>
+        <v>0.2139410834248707</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.8788897801010824</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.700419411587973</v>
+        <v>1.57278510096657</v>
       </c>
       <c r="C13">
-        <v>0.1760225008187462</v>
+        <v>0.1908248100399419</v>
       </c>
       <c r="D13">
-        <v>0.05724350466306305</v>
+        <v>0.06687035139096764</v>
       </c>
       <c r="E13">
-        <v>0.02650494668511794</v>
+        <v>0.02598872960554655</v>
       </c>
       <c r="F13">
-        <v>1.004851935933431</v>
+        <v>0.8695212040784526</v>
       </c>
       <c r="G13">
-        <v>0.7606743486297631</v>
+        <v>0.7244854295210388</v>
       </c>
       <c r="H13">
-        <v>0.1162656708858663</v>
+        <v>0.1156631749593231</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5479434151724263</v>
+        <v>0.4059462818662141</v>
       </c>
       <c r="K13">
-        <v>0.5349498301682232</v>
+        <v>0.4391331273845616</v>
       </c>
       <c r="L13">
-        <v>0.04839969180653902</v>
+        <v>0.1738373848084542</v>
       </c>
       <c r="M13">
-        <v>1.652252371510059</v>
+        <v>0.1604792872845948</v>
       </c>
       <c r="N13">
-        <v>0.1454106221694644</v>
+        <v>0.04767902589149919</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.594580326512812</v>
       </c>
       <c r="P13">
-        <v>0.9205527899476178</v>
+        <v>0.1609494163608289</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.8815913989105333</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.622570932819485</v>
+        <v>1.508178461179426</v>
       </c>
       <c r="C14">
-        <v>0.1768702035852101</v>
+        <v>0.1909438299622508</v>
       </c>
       <c r="D14">
-        <v>0.05111452237528624</v>
+        <v>0.05931964822759994</v>
       </c>
       <c r="E14">
-        <v>0.02320254466004812</v>
+        <v>0.02279677266422153</v>
       </c>
       <c r="F14">
-        <v>0.9372997196202135</v>
+        <v>0.8180050482875032</v>
       </c>
       <c r="G14">
-        <v>0.7066161858429041</v>
+        <v>0.665076615568708</v>
       </c>
       <c r="H14">
-        <v>0.1660780171632581</v>
+        <v>0.1653569355930244</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5217901275701138</v>
+        <v>0.4037572932936371</v>
       </c>
       <c r="K14">
-        <v>0.5037247823373079</v>
+        <v>0.4182551817981519</v>
       </c>
       <c r="L14">
-        <v>0.05174180610794643</v>
+        <v>0.1674395811408758</v>
       </c>
       <c r="M14">
-        <v>1.591913490033789</v>
+        <v>0.1507390629328427</v>
       </c>
       <c r="N14">
-        <v>0.1136629996987608</v>
+        <v>0.05213681981448204</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.542321735696476</v>
       </c>
       <c r="P14">
-        <v>0.9236126539738443</v>
+        <v>0.1271554131764745</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.8911365650772041</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.593296326771565</v>
+        <v>1.483842283784384</v>
       </c>
       <c r="C15">
-        <v>0.175954357877572</v>
+        <v>0.1901003843275078</v>
       </c>
       <c r="D15">
-        <v>0.04936422441608812</v>
+        <v>0.05701383224312195</v>
       </c>
       <c r="E15">
-        <v>0.0225513728135871</v>
+        <v>0.02217933618000623</v>
       </c>
       <c r="F15">
-        <v>0.91983493043994</v>
+        <v>0.806248232044112</v>
       </c>
       <c r="G15">
-        <v>0.6927037827169187</v>
+        <v>0.6466665320881191</v>
       </c>
       <c r="H15">
-        <v>0.1788107684440945</v>
+        <v>0.1780312365661985</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.5154961273170358</v>
+        <v>0.4079146112268432</v>
       </c>
       <c r="K15">
-        <v>0.4964769365159221</v>
+        <v>0.4143406887086734</v>
       </c>
       <c r="L15">
-        <v>0.05286488305314485</v>
+        <v>0.1665088215775512</v>
       </c>
       <c r="M15">
-        <v>1.566801712093508</v>
+        <v>0.148477862185409</v>
       </c>
       <c r="N15">
-        <v>0.1060154853294719</v>
+        <v>0.0535031252333944</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.521083299690474</v>
       </c>
       <c r="P15">
-        <v>0.927746108179619</v>
+        <v>0.1190467754336666</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.8960182038078557</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.496624192498189</v>
+        <v>1.402135968591892</v>
       </c>
       <c r="C16">
-        <v>0.1650087006251795</v>
+        <v>0.1809398328567653</v>
       </c>
       <c r="D16">
-        <v>0.04679284564896591</v>
+        <v>0.05263256486409063</v>
       </c>
       <c r="E16">
-        <v>0.02216889816896561</v>
+        <v>0.02184043656393486</v>
       </c>
       <c r="F16">
-        <v>0.9098641977835698</v>
+        <v>0.8121980345640409</v>
       </c>
       <c r="G16">
-        <v>0.6853234900741683</v>
+        <v>0.6133322675241288</v>
       </c>
       <c r="H16">
-        <v>0.1672896176439309</v>
+        <v>0.1662028697720785</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5162822516545305</v>
+        <v>0.4503771433931405</v>
       </c>
       <c r="K16">
-        <v>0.4993245901157728</v>
+        <v>0.4245508619422402</v>
       </c>
       <c r="L16">
-        <v>0.05116475580561008</v>
+        <v>0.1723611961978939</v>
       </c>
       <c r="M16">
-        <v>1.468813890849447</v>
+        <v>0.1490542590270003</v>
       </c>
       <c r="N16">
-        <v>0.1022700161425121</v>
+        <v>0.05168332974698586</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.439004659863087</v>
       </c>
       <c r="P16">
-        <v>0.9561347101622202</v>
+        <v>0.1155010609062046</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.9183985810839808</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.463763810266812</v>
+        <v>1.372772732968542</v>
       </c>
       <c r="C17">
-        <v>0.1562055651293548</v>
+        <v>0.1732498400826472</v>
       </c>
       <c r="D17">
-        <v>0.04800995763414306</v>
+        <v>0.0533430710586984</v>
       </c>
       <c r="E17">
-        <v>0.02336504534799921</v>
+        <v>0.02295658369746212</v>
       </c>
       <c r="F17">
-        <v>0.9378780006286078</v>
+        <v>0.8429706987609507</v>
       </c>
       <c r="G17">
-        <v>0.7082517840239149</v>
+        <v>0.6222736797236195</v>
       </c>
       <c r="H17">
-        <v>0.130227505460681</v>
+        <v>0.1289654998070091</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.5307721187875103</v>
+        <v>0.4815525809830064</v>
       </c>
       <c r="K17">
-        <v>0.5179981454126228</v>
+        <v>0.4430891816632005</v>
       </c>
       <c r="L17">
-        <v>0.04754416401301143</v>
+        <v>0.1804699958127287</v>
       </c>
       <c r="M17">
-        <v>1.42578664211976</v>
+        <v>0.1542592902858715</v>
       </c>
       <c r="N17">
-        <v>0.1153669097464345</v>
+        <v>0.04743414072729202</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.402027232923672</v>
       </c>
       <c r="P17">
-        <v>0.9763554770759519</v>
+        <v>0.1297872552776056</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.9320397304972481</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.481501840824961</v>
+        <v>1.386225877346419</v>
       </c>
       <c r="C18">
-        <v>0.1483290231340675</v>
+        <v>0.166804407235162</v>
       </c>
       <c r="D18">
-        <v>0.05278118131727183</v>
+        <v>0.05832832168771063</v>
       </c>
       <c r="E18">
-        <v>0.02735272559700608</v>
+        <v>0.02670217945851583</v>
       </c>
       <c r="F18">
-        <v>1.002983990228167</v>
+        <v>0.9023805089245513</v>
       </c>
       <c r="G18">
-        <v>0.7608409780511636</v>
+        <v>0.6622989997764819</v>
       </c>
       <c r="H18">
-        <v>0.07755438740006326</v>
+        <v>0.07625261913554482</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5590851584208991</v>
+        <v>0.5140764443340657</v>
       </c>
       <c r="K18">
-        <v>0.5533303311245206</v>
+        <v>0.4729608986836737</v>
       </c>
       <c r="L18">
-        <v>0.04495152064626451</v>
+        <v>0.1923260123805406</v>
       </c>
       <c r="M18">
-        <v>1.424541692778035</v>
+        <v>0.1645615210775517</v>
       </c>
       <c r="N18">
-        <v>0.1479837496166283</v>
+        <v>0.04362620510932746</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.401928212230558</v>
       </c>
       <c r="P18">
-        <v>0.9949065464719467</v>
+        <v>0.1648070116711366</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.9420578807578321</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.538622303187054</v>
+        <v>1.433662657489975</v>
       </c>
       <c r="C19">
-        <v>0.1419017617135125</v>
+        <v>0.1622290504018764</v>
       </c>
       <c r="D19">
-        <v>0.0603558779706006</v>
+        <v>0.06658933264758815</v>
       </c>
       <c r="E19">
-        <v>0.03526186706276491</v>
+        <v>0.03422549925848095</v>
       </c>
       <c r="F19">
-        <v>1.095854370813456</v>
+        <v>0.983687897983117</v>
       </c>
       <c r="G19">
-        <v>0.8356445132686616</v>
+        <v>0.723717924577258</v>
       </c>
       <c r="H19">
-        <v>0.03178059072777017</v>
+        <v>0.03057896849907848</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5973881547527071</v>
+        <v>0.5493219070569353</v>
       </c>
       <c r="K19">
-        <v>0.6012588907995777</v>
+        <v>0.5115948063507432</v>
       </c>
       <c r="L19">
-        <v>0.04794997487533781</v>
+        <v>0.2069900793767552</v>
       </c>
       <c r="M19">
-        <v>1.45674687937526</v>
+        <v>0.1788750279658409</v>
       </c>
       <c r="N19">
-        <v>0.1995083538561886</v>
+        <v>0.04485503721530115</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.432375802515907</v>
       </c>
       <c r="P19">
-        <v>1.015277220488681</v>
+        <v>0.2197762503288061</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.9518317218688181</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.705466148333556</v>
+        <v>1.575824783468079</v>
       </c>
       <c r="C20">
-        <v>0.1396219128127143</v>
+        <v>0.1632142922699416</v>
       </c>
       <c r="D20">
-        <v>0.07561571792941635</v>
+        <v>0.08393029558015996</v>
       </c>
       <c r="E20">
-        <v>0.05361806053184459</v>
+        <v>0.05188658732255469</v>
       </c>
       <c r="F20">
-        <v>1.263683239966142</v>
+        <v>1.122942595546562</v>
       </c>
       <c r="G20">
-        <v>0.9703305565214606</v>
+        <v>0.8439482046447324</v>
       </c>
       <c r="H20">
-        <v>0.003483864871965281</v>
+        <v>0.002701502598108085</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6624006570112897</v>
+        <v>0.5885279405288628</v>
       </c>
       <c r="K20">
-        <v>0.6827477119233407</v>
+        <v>0.5726440917607363</v>
       </c>
       <c r="L20">
-        <v>0.06559050035964376</v>
+        <v>0.2276428136359705</v>
       </c>
       <c r="M20">
-        <v>1.582496444248534</v>
+        <v>0.2047002037128749</v>
       </c>
       <c r="N20">
-        <v>0.3020754337826617</v>
+        <v>0.05911792609173183</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.548580936901516</v>
       </c>
       <c r="P20">
-        <v>1.037776526806233</v>
+        <v>0.3285710532330199</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.9564803405851006</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.926123626700672</v>
+        <v>1.758693129293817</v>
       </c>
       <c r="C21">
-        <v>0.15608148131831</v>
+        <v>0.1771998800650039</v>
       </c>
       <c r="D21">
-        <v>0.0855607966497729</v>
+        <v>0.0991045183767767</v>
       </c>
       <c r="E21">
-        <v>0.06006309629004569</v>
+        <v>0.05872394248736335</v>
       </c>
       <c r="F21">
-        <v>1.342133929883744</v>
+        <v>1.152490843864953</v>
       </c>
       <c r="G21">
-        <v>1.032111589221699</v>
+        <v>0.9684792596015654</v>
       </c>
       <c r="H21">
-        <v>0.001429359655362283</v>
+        <v>0.001113419200102772</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6850549948557756</v>
+        <v>0.4923268379411212</v>
       </c>
       <c r="K21">
-        <v>0.7077158812324527</v>
+        <v>0.5708620741771142</v>
       </c>
       <c r="L21">
-        <v>0.07193054733496496</v>
+        <v>0.2200577690390837</v>
       </c>
       <c r="M21">
-        <v>1.789150652975707</v>
+        <v>0.2132561870187821</v>
       </c>
       <c r="N21">
-        <v>0.3447334445902612</v>
+        <v>0.06404035884669668</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.719968866443224</v>
       </c>
       <c r="P21">
-        <v>0.993818083985559</v>
+        <v>0.3724087074841833</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.9055000780679539</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.065989577525613</v>
+        <v>1.87292307171964</v>
       </c>
       <c r="C22">
-        <v>0.1672660158760522</v>
+        <v>0.1861196727278553</v>
       </c>
       <c r="D22">
-        <v>0.09144308597375073</v>
+        <v>0.108760242186861</v>
       </c>
       <c r="E22">
-        <v>0.06331573343977226</v>
+        <v>0.06235693213305282</v>
       </c>
       <c r="F22">
-        <v>1.387339682177526</v>
+        <v>1.164097305768237</v>
       </c>
       <c r="G22">
-        <v>1.067798120123427</v>
+        <v>1.055133393958045</v>
       </c>
       <c r="H22">
-        <v>0.0006491773700982861</v>
+        <v>0.0005188803846722934</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6975836741534351</v>
+        <v>0.4307766716202082</v>
       </c>
       <c r="K22">
-        <v>0.7209768781342376</v>
+        <v>0.5661190831713157</v>
       </c>
       <c r="L22">
-        <v>0.07493922315305213</v>
+        <v>0.2139380556019752</v>
       </c>
       <c r="M22">
-        <v>1.921716283098334</v>
+        <v>0.217782974881402</v>
       </c>
       <c r="N22">
-        <v>0.3677668375551804</v>
+        <v>0.0662770359084135</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.827126282229841</v>
       </c>
       <c r="P22">
-        <v>0.9639297949024446</v>
+        <v>0.3957868712218442</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.8721049954468105</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.9912658003866</v>
+        <v>1.813778740016545</v>
       </c>
       <c r="C23">
-        <v>0.1612882406615483</v>
+        <v>0.1822555140290802</v>
       </c>
       <c r="D23">
-        <v>0.0883013917468034</v>
+        <v>0.1031083394217376</v>
       </c>
       <c r="E23">
-        <v>0.06157806476573668</v>
+        <v>0.06030849383618886</v>
       </c>
       <c r="F23">
-        <v>1.363078371018887</v>
+        <v>1.161540413049039</v>
       </c>
       <c r="G23">
-        <v>1.048624197892792</v>
+        <v>0.9990257263621913</v>
       </c>
       <c r="H23">
-        <v>0.001026395600046026</v>
+        <v>0.0008025947080538831</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.6908278450263765</v>
+        <v>0.4736377073877804</v>
       </c>
       <c r="K23">
-        <v>0.7138229183737224</v>
+        <v>0.5704796698065664</v>
       </c>
       <c r="L23">
-        <v>0.07333236190733672</v>
+        <v>0.2178147719734191</v>
       </c>
       <c r="M23">
-        <v>1.850889848077117</v>
+        <v>0.216089543210547</v>
       </c>
       <c r="N23">
-        <v>0.3554645879984832</v>
+        <v>0.06510845896290363</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.773172264147433</v>
       </c>
       <c r="P23">
-        <v>0.9797899300234292</v>
+        <v>0.3835118559875212</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.8905319202376134</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.709800980780955</v>
+        <v>1.579345534166208</v>
       </c>
       <c r="C24">
-        <v>0.1388174609530068</v>
+        <v>0.1625864769321907</v>
       </c>
       <c r="D24">
-        <v>0.07644739489882113</v>
+        <v>0.0848142686165545</v>
       </c>
       <c r="E24">
-        <v>0.05502974894786128</v>
+        <v>0.05324556949360648</v>
       </c>
       <c r="F24">
-        <v>1.274039796937942</v>
+        <v>1.132204110817028</v>
       </c>
       <c r="G24">
-        <v>0.9787045589042407</v>
+        <v>0.8504173229696619</v>
       </c>
       <c r="H24">
-        <v>0.003289358371825868</v>
+        <v>0.002517645815039327</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6667132927085078</v>
+        <v>0.5931802981516512</v>
       </c>
       <c r="K24">
-        <v>0.6883538880595665</v>
+        <v>0.5772810770376182</v>
       </c>
       <c r="L24">
-        <v>0.06726512646170235</v>
+        <v>0.2294646405963618</v>
       </c>
       <c r="M24">
-        <v>1.584159405921156</v>
+        <v>0.2063437336084171</v>
       </c>
       <c r="N24">
-        <v>0.3090510353466556</v>
+        <v>0.0605556144634356</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.550266096905261</v>
       </c>
       <c r="P24">
-        <v>1.041833125099199</v>
+        <v>0.3359686515177884</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.9591304170439621</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.408874551060734</v>
+        <v>1.307344005620109</v>
       </c>
       <c r="C25">
-        <v>0.1148504752194128</v>
+        <v>0.1317869095749558</v>
       </c>
       <c r="D25">
-        <v>0.06373364382832136</v>
+        <v>0.07037023886687166</v>
       </c>
       <c r="E25">
-        <v>0.0480124790144405</v>
+        <v>0.04676956221612016</v>
       </c>
       <c r="F25">
-        <v>1.183475643503257</v>
+        <v>1.063691397038752</v>
       </c>
       <c r="G25">
-        <v>0.9084499897146827</v>
+        <v>0.7935996081107817</v>
       </c>
       <c r="H25">
-        <v>0.007352072003010635</v>
+        <v>0.005741514873463305</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6435770365503117</v>
+        <v>0.5841209193612258</v>
       </c>
       <c r="K25">
-        <v>0.6640443627698502</v>
+        <v>0.5660296045390609</v>
       </c>
       <c r="L25">
-        <v>0.06072919013493916</v>
+        <v>0.2351988868946542</v>
       </c>
       <c r="M25">
-        <v>1.299048636462146</v>
+        <v>0.1906879995226696</v>
       </c>
       <c r="N25">
-        <v>0.259271743555928</v>
+        <v>0.05530828041031732</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.275691388879608</v>
       </c>
       <c r="P25">
-        <v>1.112726040281604</v>
+        <v>0.2827271814727084</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.028042583104833</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
